--- a/natmiOut/OldD4/Network_exp_0_spe_0_det_0.2_top_0_signal_lrc2p_weight_mean/Mtx.xlsx
+++ b/natmiOut/OldD4/Network_exp_0_spe_0_det_0.2_top_0_signal_lrc2p_weight_mean/Mtx.xlsx
@@ -497,7 +497,7 @@
         <v>508</v>
       </c>
       <c r="F2">
-        <v>662</v>
+        <v>660</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -517,7 +517,7 @@
         <v>628</v>
       </c>
       <c r="F3">
-        <v>867</v>
+        <v>856</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -537,7 +537,7 @@
         <v>432</v>
       </c>
       <c r="F4">
-        <v>509</v>
+        <v>506</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -557,7 +557,7 @@
         <v>405</v>
       </c>
       <c r="F5">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -565,19 +565,19 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="C6">
-        <v>753</v>
+        <v>747</v>
       </c>
       <c r="D6">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="E6">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="F6">
-        <v>838</v>
+        <v>824</v>
       </c>
     </row>
   </sheetData>
@@ -627,7 +627,7 @@
         <v>24.15613518499743</v>
       </c>
       <c r="F2">
-        <v>42.18875898795844</v>
+        <v>40.87671032885397</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -647,7 +647,7 @@
         <v>66.9020878599585</v>
       </c>
       <c r="F3">
-        <v>114.4285339230738</v>
+        <v>107.4522440811853</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -667,7 +667,7 @@
         <v>30.48086470186158</v>
       </c>
       <c r="F4">
-        <v>24.70611679310827</v>
+        <v>24.26059407795909</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -687,7 +687,7 @@
         <v>37.53805827118332</v>
       </c>
       <c r="F5">
-        <v>27.92341427890857</v>
+        <v>27.35276953897973</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -695,19 +695,19 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>44.05385697332352</v>
+        <v>43.47702767611699</v>
       </c>
       <c r="C6">
-        <v>65.86095977604488</v>
+        <v>63.56821626846487</v>
       </c>
       <c r="D6">
-        <v>26.19614209562242</v>
+        <v>25.74527319032606</v>
       </c>
       <c r="E6">
-        <v>30.88808439034846</v>
+        <v>30.43802533802518</v>
       </c>
       <c r="F6">
-        <v>66.189624190872</v>
+        <v>61.26463090934931</v>
       </c>
     </row>
   </sheetData>
@@ -757,7 +757,7 @@
         <v>775719.3751995896</v>
       </c>
       <c r="F2">
-        <v>394624.8402842518</v>
+        <v>394624.1785230582</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -777,7 +777,7 @@
         <v>5611239.99924152</v>
       </c>
       <c r="F3">
-        <v>2790583.491325243</v>
+        <v>2790576.026628518</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -797,7 +797,7 @@
         <v>2154526.941598135</v>
       </c>
       <c r="F4">
-        <v>824262.7694197508</v>
+        <v>824259.9801045868</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -817,7 +817,7 @@
         <v>2484550.157393574</v>
       </c>
       <c r="F5">
-        <v>1002718.475042531</v>
+        <v>1002714.022583148</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -825,19 +825,19 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>498082.3836269428</v>
+        <v>498077.1431314307</v>
       </c>
       <c r="C6">
-        <v>517890.3998671355</v>
+        <v>517859.8770180059</v>
       </c>
       <c r="D6">
-        <v>659833.9211064434</v>
+        <v>659826.4635909342</v>
       </c>
       <c r="E6">
-        <v>833497.3400596591</v>
+        <v>833488.9473755717</v>
       </c>
       <c r="F6">
-        <v>392412.7781444896</v>
+        <v>392385.8778702005</v>
       </c>
     </row>
   </sheetData>
